--- a/ReadMe.xlsx
+++ b/ReadMe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Charts 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Charts2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4193C3-E04C-46A1-858D-0A21838F5095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E602D1C-5428-4B0F-9221-21E535402BBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7065" yWindow="1260" windowWidth="20565" windowHeight="13695" tabRatio="964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4935" yWindow="2295" windowWidth="10425" windowHeight="8625" tabRatio="964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Employment" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Categories</t>
   </si>
@@ -76,6 +77,18 @@
   </si>
   <si>
     <t>GDP per capita</t>
+  </si>
+  <si>
+    <t>Household Debt</t>
+  </si>
+  <si>
+    <t>Chart</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://www.rbnz.govt.nz/statistics/key-graphs/key-graph-household-debt</t>
   </si>
 </sst>
 </file>
@@ -416,7 +429,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8296B5-DC02-4E94-83F5-D3B4BD795027}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -551,12 +564,34 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8294A244-7333-48EB-9D7A-C97DD871BD19}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{796B17F1-56A2-4906-92F1-402B5E3AC339}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ReadMe.xlsx
+++ b/ReadMe.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Charts2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E602D1C-5428-4B0F-9221-21E535402BBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B08F7B3-2EED-4EDC-952F-4F690B6E0EB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="2295" windowWidth="10425" windowHeight="8625" tabRatio="964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="930" windowWidth="20775" windowHeight="11895" tabRatio="964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
-    <sheet name="Exchange Rates and Trade" sheetId="2" r:id="rId2"/>
-    <sheet name="Tax" sheetId="3" r:id="rId3"/>
-    <sheet name="Government Spending and Debt" sheetId="4" r:id="rId4"/>
-    <sheet name="Savings, Investment, and Cons." sheetId="5" r:id="rId5"/>
-    <sheet name="Growth and Incomes" sheetId="6" r:id="rId6"/>
-    <sheet name="Financial Markets, Interest Rat" sheetId="7" r:id="rId7"/>
-    <sheet name="Employment" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Categories</t>
   </si>
@@ -67,35 +59,17 @@
     <t>Employment</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Available at:</t>
-  </si>
-  <si>
-    <t>https://stats.oecd.org/</t>
-  </si>
-  <si>
-    <t>GDP per capita</t>
-  </si>
-  <si>
-    <t>Household Debt</t>
-  </si>
-  <si>
-    <t>Chart</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>https://www.rbnz.govt.nz/statistics/key-graphs/key-graph-household-debt</t>
+    <t>https://raw.githubusercontent.com/joe-ascroft/Charts2020/master/</t>
+  </si>
+  <si>
+    <t>Github R Link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,14 +81,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,17 +103,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -426,186 +389,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BDAC35-B259-4A4C-BA0D-743387C90FBA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FDCE27-1009-4CD8-B62B-5C1E237D5B63}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE480AD1-E197-4F13-AB63-92F67D331706}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A95F356-5C65-4731-AE16-67EBD4F3A210}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8296B5-DC02-4E94-83F5-D3B4BD795027}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{ED1C5382-7FEA-4276-AC8B-6A3BAC521F34}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8294A244-7333-48EB-9D7A-C97DD871BD19}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{796B17F1-56A2-4906-92F1-402B5E3AC339}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA2C0E7-C874-49C4-908E-F1A43342433F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26:M27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ReadMe.xlsx
+++ b/ReadMe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Charts2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B08F7B3-2EED-4EDC-952F-4F690B6E0EB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1469F86F-8494-4A72-AA0D-D68B6A8BB305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5070" yWindow="930" windowWidth="20775" windowHeight="11895" tabRatio="964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Categories</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Github R Link</t>
+  </si>
+  <si>
+    <t>Chart data and code for generating charts is stored at https://github.com/joe-ascroft/Charts2020</t>
+  </si>
+  <si>
+    <t>Charts available at https://github.com/joe-ascroft/Charts2020/tree/master/Charts</t>
   </si>
 </sst>
 </file>
@@ -389,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,6 +451,16 @@
         <v>8</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
